--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3978198.323580475</v>
+        <v>3975654.536835017</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7184969.254743541</v>
+        <v>7184969.254743539</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651793</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>20.28958724568776</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.793800617969</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="W2" t="n">
-        <v>207.5144425406736</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.575121826572</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.48524054500682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280755</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642718</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55380240427771</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651793</v>
+        <v>15.41512425100718</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>263.3828147651793</v>
       </c>
       <c r="X4" t="n">
-        <v>154.6197162402312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>21.3187035390025</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>213.5570785313436</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>87.64850037650659</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>59.10511252825227</v>
       </c>
       <c r="U8" t="n">
-        <v>147.4967094207931</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>174.9996494693322</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>121.0573374602124</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>71.39698738222812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881281</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>106.1291803787679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>233.9399788842217</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.75167225698492</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784706</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957386</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319671</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4770547252865</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>60.64713141731118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986223</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>207.0967504439648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>29.249233057517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258334</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060141</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,16 +3955,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>26.07046444232049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.6164309267676</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.5402914608971</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233422</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233422</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233422</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741387</v>
+        <v>158.0811060091208</v>
       </c>
       <c r="G2" t="n">
         <v>137.5865734377191</v>
@@ -4325,7 +4325,7 @@
         <v>137.5865734377191</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121435</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="J2" t="n">
         <v>49.159939014673</v>
@@ -4334,19 +4334,19 @@
         <v>141.9970572935553</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959962</v>
+        <v>294.0714735959957</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795959</v>
+        <v>494.9530007795956</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670303</v>
+        <v>703.6988094670301</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288917</v>
+        <v>887.4762960288915</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108064</v>
+        <v>1009.825128108063</v>
       </c>
       <c r="Q2" t="n">
         <v>1053.531259060717</v>
@@ -4355,25 +4355,25 @@
         <v>1053.531259060717</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193345</v>
+        <v>899.1940867193342</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193345</v>
+        <v>684.7549646357884</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193345</v>
+        <v>431.0698539958792</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193345</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="W2" t="n">
-        <v>689.583538698452</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="X2" t="n">
-        <v>689.583538698452</v>
+        <v>165.0266067583243</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.5402914608971</v>
+        <v>165.0266067583243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.2792596484077</v>
+        <v>166.5861427282637</v>
       </c>
       <c r="C3" t="n">
-        <v>452.2792596484077</v>
+        <v>166.5861427282637</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3448499871564</v>
+        <v>166.5861427282637</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3448499871564</v>
+        <v>121.5607671458677</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3448499871564</v>
+        <v>121.5607671458677</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>121.5607671458677</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121435</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121435</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371005</v>
+        <v>140.7335782429836</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433163</v>
+        <v>287.3462342725899</v>
       </c>
       <c r="M3" t="n">
-        <v>432.716228529902</v>
+        <v>477.7931567591756</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779508</v>
+        <v>738.5421433767031</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760964</v>
+        <v>908.3363012748487</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062217</v>
+        <v>1025.278016062216</v>
       </c>
       <c r="Q3" t="n">
         <v>1053.531259060717</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155235</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712059</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="T3" t="n">
-        <v>886.5091315712059</v>
+        <v>856.7196849208083</v>
       </c>
       <c r="U3" t="n">
-        <v>886.5091315712059</v>
+        <v>628.5837982214192</v>
       </c>
       <c r="V3" t="n">
-        <v>651.3570233394632</v>
+        <v>628.5837982214192</v>
       </c>
       <c r="W3" t="n">
-        <v>651.3570233394632</v>
+        <v>374.3464414932176</v>
       </c>
       <c r="X3" t="n">
-        <v>651.3570233394632</v>
+        <v>374.3464414932176</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.4945966684757</v>
+        <v>166.5861427282637</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121435</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121435</v>
+        <v>21.07062518121434</v>
       </c>
       <c r="K4" t="n">
         <v>126.3277805481196</v>
@@ -4495,13 +4495,13 @@
         <v>316.5471352504845</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030299</v>
+        <v>527.4958971570813</v>
       </c>
       <c r="N4" t="n">
-        <v>738.034023167007</v>
+        <v>738.8633854210585</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836263</v>
+        <v>918.0791761376778</v>
       </c>
       <c r="P4" t="n">
         <v>1047.079201097368</v>
@@ -4510,28 +4510,28 @@
         <v>1053.531259060717</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060717</v>
+        <v>924.7153898971953</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060717</v>
+        <v>924.7153898971953</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060717</v>
+        <v>699.2441356468885</v>
       </c>
       <c r="U4" t="n">
-        <v>787.4880118231624</v>
+        <v>683.6733030701135</v>
       </c>
       <c r="V4" t="n">
-        <v>787.4880118231624</v>
+        <v>683.6733030701135</v>
       </c>
       <c r="W4" t="n">
-        <v>521.4447645856076</v>
+        <v>417.6300558325587</v>
       </c>
       <c r="X4" t="n">
-        <v>365.2632330298185</v>
+        <v>189.6405049345414</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.4706538862884</v>
+        <v>189.6405049345414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.425644570946</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>432.425644570946</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>432.425644570946</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>432.425644570946</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>425.4801438217425</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298172</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>432.425644570946</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>432.425644570946</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180.334565405576</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374624</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>642.3322208987315</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>642.3322208987315</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>388.0948641705299</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>388.0948641705299</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>180.334565405576</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.3784526566078</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>410.4422697287009</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9084309645528</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>800.1710318001379</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>800.1710318001379</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.3784526566078</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2502.637194533234</v>
       </c>
       <c r="U8" t="n">
-        <v>2413.352753227638</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="V8" t="n">
-        <v>2413.352753227638</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="W8" t="n">
-        <v>2413.352753227638</v>
+        <v>1896.2874785273</v>
       </c>
       <c r="X8" t="n">
-        <v>2039.886994966557</v>
+        <v>1522.82172026622</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1294.815075958063</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>1125.878893030156</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>1125.878893030156</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>1125.878893030156</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>1125.878893030156</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>1125.878893030156</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>2459.755921915738</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>2459.755921915738</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>2282.988599219443</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1993.87026172328</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1993.87026172328</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1704.45309168632</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1476.463540788302</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>1476.463540788302</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793924</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.955258982919</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>889.0190760550122</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>738.9024366426764</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956689</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.603723813159</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5598,19 +5598,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1380.253191019954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1152.263640121936</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5981,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>551.263652184387</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>403.3505586019938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>256.4606111040835</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>256.4606111040835</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1055.185257670615</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>886.249074742708</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D31" t="n">
-        <v>736.1324353303722</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E31" t="n">
-        <v>588.2193417479791</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>441.3293942500687</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1975.033022579363</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1685.615852542402</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1457.626301644385</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1236.833722500854</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O33" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7184,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4387812932954</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>849.3843576263199</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.109135423079707</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.53225073663998</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.36652108028159</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692174</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588886</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634838</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>265.030432851515</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>52.58301945236926</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>60.54304058923897</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408524</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460207</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>43.04708356698235</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562246</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4525338942705</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.96822242532721</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900063</v>
@@ -26347,10 +26347,10 @@
         <v>807146.5996900065</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26369,13 +26369,13 @@
         <v>366.4703680954862</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642058</v>
+        <v>68912.53318642051</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774291759</v>
+        <v>85.20559774296147</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756981</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289266</v>
@@ -26427,37 +26427,37 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="G4" t="n">
         <v>12386.92018181815</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181811</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>12386.92018181805</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181805</v>
+      </c>
+      <c r="M4" t="n">
         <v>12386.9201818181</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181817</v>
-      </c>
       <c r="N4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>63021.4616455768</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174798.6520396251</v>
+        <v>-174798.6520396252</v>
       </c>
       <c r="C6" t="n">
-        <v>504610.7313845866</v>
+        <v>504610.7313845865</v>
       </c>
       <c r="D6" t="n">
-        <v>194228.676350796</v>
+        <v>194228.6763507958</v>
       </c>
       <c r="E6" t="n">
-        <v>186151.7080597353</v>
+        <v>186116.9701342991</v>
       </c>
       <c r="F6" t="n">
-        <v>693637.1496842804</v>
+        <v>693602.4117588451</v>
       </c>
       <c r="G6" t="n">
-        <v>693637.1496842809</v>
+        <v>693602.411758845</v>
       </c>
       <c r="H6" t="n">
-        <v>693637.1496842809</v>
+        <v>693602.411758845</v>
       </c>
       <c r="I6" t="n">
-        <v>693637.1496842812</v>
+        <v>693602.411758845</v>
       </c>
       <c r="J6" t="n">
-        <v>624724.6164978605</v>
+        <v>624689.8785724246</v>
       </c>
       <c r="K6" t="n">
-        <v>693551.9440865382</v>
+        <v>693517.206161102</v>
       </c>
       <c r="L6" t="n">
-        <v>598254.5035467114</v>
+        <v>598219.7656212756</v>
       </c>
       <c r="M6" t="n">
-        <v>561029.8559553546</v>
+        <v>560995.118029919</v>
       </c>
       <c r="N6" t="n">
-        <v>693637.1496842809</v>
+        <v>693602.4117588452</v>
       </c>
       <c r="O6" t="n">
-        <v>693637.1496842812</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="P6" t="n">
-        <v>693637.1496842811</v>
+        <v>693602.4117588454</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,46 +26790,46 @@
         <v>263.3828147651793</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0.2849904734281381</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27015,10 +27015,10 @@
         <v>0.3310652363268787</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>263.3828147651793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363266513</v>
+        <v>0.3310652363268218</v>
       </c>
       <c r="L4" t="n">
-        <v>376.870952098533</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0.3310652363268787</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058282</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>392.5457330903677</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495564</v>
       </c>
       <c r="W2" t="n">
-        <v>141.7265261767394</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908743</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.0699586288289</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9429094280755</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642718</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.1288933730266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
         <v>15.10853304825667</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934802</v>
+        <v>270.8435342835202</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141168</v>
+        <v>23.14018357141174</v>
       </c>
       <c r="X4" t="n">
-        <v>71.08993914880597</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402053</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>391.5154711067075</v>
-      </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>12.29740897221106</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>60.96697264170577</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>147.5530724519815</v>
       </c>
       <c r="U8" t="n">
-        <v>103.5485407076689</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7490465278797</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>97.52731589188241</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29515,16 +29515,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>604.7968300725076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>307.4654529393634</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,22 +32318,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>728.6709493241812</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>414.9172504145579</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P33" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O39" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256103</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272292</v>
+        <v>120.8716697593629</v>
       </c>
       <c r="L3" t="n">
         <v>148.0935919490972</v>
@@ -34787,13 +34787,13 @@
         <v>192.370628774329</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848977</v>
+        <v>263.3828147651793</v>
       </c>
       <c r="O3" t="n">
         <v>171.5092504021673</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465862</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
         <v>28.53862929141479</v>
@@ -34863,7 +34863,7 @@
         <v>192.1407623256212</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308539</v>
+        <v>213.0795574814109</v>
       </c>
       <c r="N4" t="n">
         <v>213.5025133979568</v>
@@ -34872,7 +34872,7 @@
         <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653959</v>
+        <v>130.3030555148386</v>
       </c>
       <c r="Q4" t="n">
         <v>6.517230266009193</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>600.455114847638</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>462.2005856280633</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4910455250332</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>597.3292372408479</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876629</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>283.5755383312245</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P33" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O39" t="n">
-        <v>394.6661099905195</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112801</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
